--- a/EDA/Tableone.xlsx
+++ b/EDA/Tableone.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,12 +510,12 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>SMD (0,1)</t>
+          <t>SMD (0.0,1.0)</t>
         </is>
       </c>
     </row>
@@ -546,10 +546,10 @@
         <v>71011</v>
       </c>
       <c r="E4" t="n">
-        <v>69833</v>
+        <v>69831</v>
       </c>
       <c r="F4" t="n">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -576,12 +576,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27877 (39.9)</t>
+          <t>27876 (39.9)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>489 (41.5)</t>
+          <t>490 (41.5)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.033</t>
         </is>
       </c>
     </row>
@@ -615,12 +615,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>41956 (60.1)</t>
+          <t>41955 (60.1)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>689 (58.5)</t>
+          <t>690 (58.5)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -664,7 +664,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.224</t>
+          <t>0.223</t>
         </is>
       </c>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>56586 (100.0)</t>
+          <t>56584 (100.0)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>993 (100.0)</t>
+          <t>995 (100.0)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>141.9 (24.5)</t>
+          <t>144.2 (25.9)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-0.651</t>
+          <t>-0.538</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.0 (14.6)</t>
+          <t>82.9 (14.6)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>76.8 (14.4)</t>
+          <t>78.1 (14.9)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-0.423</t>
+          <t>-0.327</t>
         </is>
       </c>
     </row>
@@ -812,12 +812,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>139.6 (20.7)</t>
+          <t>139.5 (20.9)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>104.6 (17.7)</t>
+          <t>114.9 (18.6)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-1.821</t>
+          <t>-1.243</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>75.3 (11.6)</t>
+          <t>75.2 (11.7)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>60.8 (9.5)</t>
+          <t>66.3 (10.4)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-1.374</t>
+          <t>-0.812</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1574.3 (1381.1)</t>
+          <t>1574.4 (1381.2)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1928.4 (1817.7)</t>
+          <t>1925.6 (1812.0)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.219</t>
+          <t>0.218</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.212</t>
         </is>
       </c>
     </row>
@@ -980,12 +980,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>60046 (86.0)</t>
+          <t>60045 (86.0)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1036 (87.9)</t>
+          <t>1037 (87.9)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6167 (8.8)</t>
+          <t>6165 (8.8)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>91 (7.7)</t>
+          <t>93 (7.9)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1069,12 +1069,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3609 (5.2)</t>
+          <t>3610 (5.2)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>51 (4.3)</t>
+          <t>50 (4.2)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>56.9 (9.8)</t>
+          <t>57.0 (9.8)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-0.204</t>
+          <t>-0.197</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.024</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-0.224</t>
+          <t>-0.223</t>
         </is>
       </c>
     </row>
@@ -1289,12 +1289,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>69833 (100.0)</t>
+          <t>69831 (100.0)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1178 (100.0)</t>
+          <t>1180 (100.0)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>67998 (97.4)</t>
+          <t>67994 (97.4)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1166 (99.0)</t>
+          <t>1170 (99.2)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.106</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.135</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
@@ -1373,14 +1373,10 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8 (0.0)</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1 (0.1)</t>
-        </is>
-      </c>
+          <t>9 (0.0)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1400,12 +1396,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1772 (2.5)</t>
+          <t>1773 (2.5)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10 (0.8)</t>
+          <t>9 (0.8)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1460,12 +1456,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1238 (1.8)</t>
+          <t>1233 (1.8)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>52 (4.4)</t>
+          <t>57 (4.8)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1480,7 +1476,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.368</t>
+          <t>0.393</t>
         </is>
       </c>
     </row>
@@ -1499,12 +1495,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5313 (7.6)</t>
+          <t>5309 (7.6)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>213 (18.1)</t>
+          <t>217 (18.4)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1526,12 +1522,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>475 (0.7)</t>
+          <t>477 (0.7)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3 (0.3)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1553,12 +1549,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>62807 (89.9)</t>
+          <t>62812 (89.9)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>910 (77.2)</t>
+          <t>905 (76.7)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1586,12 +1582,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>17024 (25.8)</t>
+          <t>17030 (25.8)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>327 (28.8)</t>
+          <t>321 (28.2)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1606,7 +1602,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.423</t>
+          <t>0.434</t>
         </is>
       </c>
     </row>
@@ -1625,12 +1621,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>534 (0.8)</t>
+          <t>533 (0.8)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>44 (3.9)</t>
+          <t>45 (4.0)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1652,12 +1648,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5146 (7.8)</t>
+          <t>5137 (7.8)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>202 (17.8)</t>
+          <t>211 (18.5)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1679,12 +1675,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>43204 (65.4)</t>
+          <t>43202 (65.4)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>556 (49.0)</t>
+          <t>558 (49.0)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1733,12 +1729,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>86 (0.1)</t>
+          <t>88 (0.1)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3 (0.3)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1767,12 +1763,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.1 (1.5)</t>
+          <t>3.1 (1.6)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1782,7 +1778,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.094</t>
+          <t>0.109</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1809,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.118</t>
+          <t>0.023</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1823,7 +1819,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-0.092</t>
+          <t>-0.106</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1850,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.002</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1864,14 +1860,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.121</t>
+          <t>0.125</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>透析中收缩压_mean, mean (SD)</t>
+          <t>透中低血压_计算, mean (SD)</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr"/>
@@ -1880,17 +1876,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>144.1 (19.0)</t>
+          <t>0.0 (0.1)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>144.7 (18.6)</t>
+          <t>0.0 (0.1)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>111.2 (12.2)</t>
+          <t>0.2 (0.4)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1905,14 +1901,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-2.128</t>
+          <t>0.514</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>透析中收缩压_std, mean (SD)</t>
+          <t>透析中收缩压_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr"/>
@@ -1921,17 +1917,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10.6 (6.2)</t>
+          <t>144.1 (19.0)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10.5 (6.1)</t>
+          <t>144.5 (18.8)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>19.4 (7.5)</t>
+          <t>122.5 (18.3)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1946,14 +1942,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.316</t>
+          <t>-1.187</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>透析中舒张压_mean, mean (SD)</t>
+          <t>透析中收缩压_std, mean (SD)</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr"/>
@@ -1962,17 +1958,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>77.3 (11.1)</t>
+          <t>10.6 (6.2)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>77.5 (11.0)</t>
+          <t>10.6 (6.2)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>64.1 (8.3)</t>
+          <t>13.8 (7.4)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1987,14 +1983,14 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-1.368</t>
+          <t>0.474</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>透析中舒张压_std, mean (SD)</t>
+          <t>透析中舒张压_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr"/>
@@ -2003,17 +1999,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6.1 (3.6)</t>
+          <t>77.3 (11.1)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6.0 (3.5)</t>
+          <t>77.4 (11.1)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10.0 (5.0)</t>
+          <t>69.3 (9.9)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2028,33 +2024,33 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.906</t>
+          <t>-0.764</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>透析中脉搏_mean, mean (SD)</t>
+          <t>透析中舒张压_std, mean (SD)</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>75.7 (10.1)</t>
+          <t>6.1 (3.6)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>75.7 (10.1)</t>
+          <t>6.1 (3.6)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>80.8 (11.4)</t>
+          <t>7.1 (4.3)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2069,14 +2065,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.476</t>
+          <t>0.262</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>透析中脉搏_std, mean (SD)</t>
+          <t>透析中脉搏_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr"/>
@@ -2085,17 +2081,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4.8 (3.3)</t>
+          <t>75.7 (10.1)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.8 (3.2)</t>
+          <t>75.7 (10.1)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>6.6 (4.4)</t>
+          <t>80.1 (11.2)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2110,33 +2106,33 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.466</t>
+          <t>0.420</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>超滤率_mean, mean (SD)</t>
+          <t>透析中脉搏_std, mean (SD)</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>5409</v>
+        <v>6</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>612.6 (181.3)</t>
+          <t>4.8 (3.3)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>612.2 (181.8)</t>
+          <t>4.8 (3.3)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>636.8 (152.8)</t>
+          <t>5.8 (4.3)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2151,14 +2147,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.147</t>
+          <t>0.268</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>超滤率_std, mean (SD)</t>
+          <t>超滤率_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr"/>
@@ -2167,17 +2163,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.5 (18.1)</t>
+          <t>612.6 (181.3)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.9 (17.0)</t>
+          <t>612.1 (181.6)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>36.5 (39.3)</t>
+          <t>642.2 (159.4)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2192,33 +2188,33 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>0.176</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>超滤量MAX, mean (SD)</t>
+          <t>超滤率_std, mean (SD)</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>5409</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2583.1 (832.6)</t>
+          <t>4.5 (18.1)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2580.6 (834.3)</t>
+          <t>4.3 (17.9)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2729.8 (707.3)</t>
+          <t>11.2 (26.5)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2233,38 +2229,38 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.302</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>静脉压_mean, mean (SD)</t>
+          <t>超滤量MAX, mean (SD)</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>109.9 (31.0)</t>
+          <t>2583.1 (832.6)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>109.9 (30.9)</t>
+          <t>2581.1 (834.0)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>107.7 (34.4)</t>
+          <t>2700.6 (733.3)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>&lt;0.001</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2274,14 +2270,14 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>-0.067</t>
+          <t>0.152</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>静脉压_std, mean (SD)</t>
+          <t>静脉压_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr"/>
@@ -2290,22 +2286,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.4 (3.4)</t>
+          <t>109.9 (31.0)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.4 (3.3)</t>
+          <t>109.9 (30.9)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2.0 (4.5)</t>
+          <t>106.3 (33.6)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>&lt;0.001</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2315,38 +2311,38 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.157</t>
+          <t>-0.111</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>动脉压_mean, mean (SD)</t>
+          <t>静脉压_std, mean (SD)</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>99.6 (12.0)</t>
+          <t>1.4 (3.4)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>99.9 (11.8)</t>
+          <t>1.4 (3.3)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>79.8 (8.6)</t>
+          <t>1.6 (3.8)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>&lt;0.001</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2356,14 +2352,14 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-1.948</t>
+          <t>0.070</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>动脉压_std, mean (SD)</t>
+          <t>动脉压_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr"/>
@@ -2372,17 +2368,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>6.9 (4.0)</t>
+          <t>99.6 (12.0)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>6.8 (3.9)</t>
+          <t>99.8 (11.9)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>12.7 (5.6)</t>
+          <t>87.1 (11.6)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2397,33 +2393,33 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.221</t>
+          <t>-1.081</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>血流速_mean, mean (SD)</t>
+          <t>动脉压_std, mean (SD)</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>1458</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>244.9 (17.3)</t>
+          <t>6.9 (4.0)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>245.0 (17.2)</t>
+          <t>6.9 (4.0)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>235.7 (20.4)</t>
+          <t>8.8 (5.0)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2438,14 +2434,14 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>-0.496</t>
+          <t>0.418</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>血流速_std, mean (SD)</t>
+          <t>血流速_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr"/>
@@ -2454,17 +2450,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1.0 (3.9)</t>
+          <t>244.9 (17.3)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.9 (3.8)</t>
+          <t>245.0 (17.3)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5.2 (7.4)</t>
+          <t>240.1 (19.0)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2479,33 +2475,33 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.732</t>
+          <t>-0.271</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>透析液温度_mean, mean (SD)</t>
+          <t>血流速_std, mean (SD)</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>25</v>
+        <v>1458</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>37.0 (0.2)</t>
+          <t>1.0 (3.9)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>37.0 (0.2)</t>
+          <t>1.0 (3.9)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>36.9 (0.2)</t>
+          <t>1.8 (4.9)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2520,14 +2516,14 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-0.373</t>
+          <t>0.175</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>透析液温度_std, mean (SD)</t>
+          <t>透析液温度_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr"/>
@@ -2536,17 +2532,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.0 (0.1)</t>
+          <t>37.0 (0.2)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.0 (0.1)</t>
+          <t>37.0 (0.2)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.0 (0.1)</t>
+          <t>36.9 (0.2)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2561,38 +2557,38 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.422</t>
+          <t>-0.252</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>跨膜压_mean, mean (SD)</t>
+          <t>透析液温度_std, mean (SD)</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>76.7 (32.6)</t>
+          <t>0.0 (0.1)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>76.7 (32.6)</t>
+          <t>0.0 (0.1)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>79.0 (32.7)</t>
+          <t>0.0 (0.1)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>&lt;0.001</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2602,14 +2598,14 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.191</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>跨膜压_std, mean (SD)</t>
+          <t>跨膜压_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
@@ -2618,22 +2614,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.1 (3.0)</t>
+          <t>76.7 (32.6)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.1 (3.0)</t>
+          <t>76.7 (32.6)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.8 (4.2)</t>
+          <t>78.8 (31.3)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>&lt;0.001</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2643,38 +2639,38 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.179</t>
+          <t>0.065</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>历史平均透前体重, mean (SD)</t>
+          <t>跨膜压_std, mean (SD)</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>59.0 (10.7)</t>
+          <t>1.1 (3.0)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>59.1 (10.7)</t>
+          <t>1.1 (3.0)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>56.8 (9.8)</t>
+          <t>1.3 (3.3)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>&lt;0.001</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2684,38 +2680,38 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-0.225</t>
+          <t>0.048</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>历史平均透前呼吸频率, mean (SD)</t>
+          <t>历史平均透前体重, mean (SD)</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>19.0 (0.2)</t>
+          <t>59.0 (10.7)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>19.0 (0.2)</t>
+          <t>59.1 (10.7)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>19.0 (0.2)</t>
+          <t>56.7 (9.8)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>&lt;0.001</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2725,14 +2721,14 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>-0.228</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>历史平均透前体温, mean (SD)</t>
+          <t>历史平均透前呼吸频率, mean (SD)</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
@@ -2741,17 +2737,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>36.5 (0.5)</t>
+          <t>19.0 (0.2)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>36.5 (0.5)</t>
+          <t>19.0 (0.2)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>36.5 (0.4)</t>
+          <t>19.0 (0.2)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2766,38 +2762,38 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.015</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>历史平均干体重, mean (SD)</t>
+          <t>历史平均透前体温, mean (SD)</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>56.0 (10.3)</t>
+          <t>36.5 (0.5)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>56.1 (10.3)</t>
+          <t>36.5 (0.5)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>53.8 (9.3)</t>
+          <t>36.5 (0.4)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>&lt;0.001</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2807,38 +2803,38 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>-0.227</t>
+          <t>0.014</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>历史平均透析液钙浓度, mean (SD)</t>
+          <t>历史平均干体重, mean (SD)</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.5 (0.0)</t>
+          <t>56.0 (10.3)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.5 (0.0)</t>
+          <t>56.1 (10.3)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1.5 (0.0)</t>
+          <t>53.8 (9.3)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>&lt;0.001</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2848,14 +2844,14 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>-0.230</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>历史平均透析液电导率, mean (SD)</t>
+          <t>历史平均透析液钙浓度, mean (SD)</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
@@ -2864,17 +2860,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>14.0 (0.2)</t>
+          <t>1.5 (0.0)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14.0 (0.2)</t>
+          <t>1.5 (0.0)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>14.0 (0.1)</t>
+          <t>1.5 (0.0)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2889,33 +2885,33 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.014</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>历史平均实际透析时长, mean (SD)</t>
+          <t>历史平均透析液电导率, mean (SD)</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4.0 (0.1)</t>
+          <t>14.0 (0.2)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.0 (0.1)</t>
+          <t>14.0 (0.2)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4.0 (0.1)</t>
+          <t>14.0 (0.2)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2930,38 +2926,38 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>-0.071</t>
+          <t>0.014</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>历史平均透前收缩压, mean (SD)</t>
+          <t>历史平均实际透析时长, mean (SD)</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>158.2 (16.0)</t>
+          <t>4.0 (0.1)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>158.3 (15.9)</t>
+          <t>4.0 (0.1)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>149.3 (19.0)</t>
+          <t>4.0 (0.1)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>&lt;0.001</t>
+          <t>0.409</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2971,14 +2967,14 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-0.515</t>
+          <t>-0.082</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>历史平均透前舒张压, mean (SD)</t>
+          <t>历史平均透前收缩压, mean (SD)</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
@@ -2987,17 +2983,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>83.2 (11.9)</t>
+          <t>158.2 (16.0)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>83.3 (11.9)</t>
+          <t>158.3 (15.9)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>79.4 (11.2)</t>
+          <t>149.2 (19.0)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3012,14 +3008,14 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>-0.336</t>
+          <t>-0.518</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>历史平均降幅时间点比值区间, mean (SD)</t>
+          <t>历史平均透前舒张压, mean (SD)</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
@@ -3028,17 +3024,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4.0 (0.1)</t>
+          <t>83.2 (11.9)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4.0 (0.1)</t>
+          <t>83.3 (11.9)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>3.9 (0.2)</t>
+          <t>79.3 (11.1)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3053,14 +3049,14 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-0.766</t>
+          <t>-0.342</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>历史平均降幅时间点差值区间, mean (SD)</t>
+          <t>历史平均降幅时间点比值区间, mean (SD)</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
@@ -3079,7 +3075,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3.8 (0.2)</t>
+          <t>3.9 (0.2)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3094,14 +3090,14 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-0.775</t>
+          <t>-0.757</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>历史平均透中低血压_计算, mean (SD)</t>
+          <t>历史平均降幅时间点差值区间, mean (SD)</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
@@ -3110,17 +3106,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.0 (0.0)</t>
+          <t>4.0 (0.1)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.0 (0.0)</t>
+          <t>4.0 (0.1)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.1 (0.0)</t>
+          <t>3.8 (0.2)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3135,14 +3131,14 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1.009</t>
+          <t>-0.766</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>历史平均透析中收缩压_mean, mean (SD)</t>
+          <t>历史平均透中低血压_计算, mean (SD)</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
@@ -3151,17 +3147,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>145.1 (14.6)</t>
+          <t>0.0 (0.0)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>145.3 (14.5)</t>
+          <t>0.0 (0.0)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>132.1 (15.5)</t>
+          <t>0.1 (0.0)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3176,14 +3172,14 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>-0.877</t>
+          <t>0.988</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>历史平均透析中舒张压_mean, mean (SD)</t>
+          <t>历史平均透析中收缩压_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
@@ -3192,17 +3188,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>77.6 (9.1)</t>
+          <t>145.1 (14.6)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>77.6 (9.1)</t>
+          <t>145.3 (14.5)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>72.7 (7.8)</t>
+          <t>132.2 (15.6)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3217,14 +3213,14 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>-0.584</t>
+          <t>-0.870</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>历史平均透析中脉搏_mean, mean (SD)</t>
+          <t>历史平均透析中舒张压_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
@@ -3233,17 +3229,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>75.9 (7.5)</t>
+          <t>77.6 (9.1)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>75.9 (7.5)</t>
+          <t>77.6 (9.1)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>78.7 (7.5)</t>
+          <t>72.7 (7.8)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3258,38 +3254,38 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.373</t>
+          <t>-0.588</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>历史平均超滤率_mean, mean (SD)</t>
+          <t>历史平均透析中脉搏_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>617.8 (135.7)</t>
+          <t>75.9 (7.5)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>617.8 (135.9)</t>
+          <t>75.9 (7.5)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>617.6 (121.5)</t>
+          <t>78.6 (7.6)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>&lt;0.001</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3299,38 +3295,38 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>-0.001</t>
+          <t>0.366</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>历史平均静脉压_mean, mean (SD)</t>
+          <t>历史平均超滤率_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>111.0 (21.9)</t>
+          <t>617.8 (135.7)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>111.1 (21.8)</t>
+          <t>617.9 (135.9)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>108.5 (25.2)</t>
+          <t>615.5 (122.1)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3340,38 +3336,38 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>-0.108</t>
+          <t>-0.019</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>历史平均动脉压_mean, mean (SD)</t>
+          <t>历史平均静脉压_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>100.1 (9.1)</t>
+          <t>111.0 (21.9)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>100.2 (9.1)</t>
+          <t>111.1 (21.8)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>92.5 (9.0)</t>
+          <t>108.3 (25.4)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>&lt;0.001</t>
+          <t>0.014</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3381,33 +3377,33 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-0.854</t>
+          <t>-0.116</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>历史平均血流速_mean, mean (SD)</t>
+          <t>历史平均动脉压_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>242.1 (11.4)</t>
+          <t>100.1 (9.1)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>242.2 (11.4)</t>
+          <t>100.2 (9.1)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>238.4 (12.7)</t>
+          <t>92.5 (8.9)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3422,38 +3418,38 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>-0.316</t>
+          <t>-0.854</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>历史平均透析液温度_mean, mean (SD)</t>
+          <t>历史平均血流速_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>37.0 (1.4)</t>
+          <t>242.1 (11.4)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>37.0 (1.4)</t>
+          <t>242.2 (11.4)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>37.0 (1.3)</t>
+          <t>238.4 (12.7)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>&lt;0.001</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3463,48 +3459,89 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>-0.012</t>
+          <t>-0.317</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>历史平均跨膜压_mean, mean (SD)</t>
+          <t>历史平均透析液温度_mean, mean (SD)</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>37.0 (1.4)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>37.0 (1.4)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>37.0 (1.4)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Two Sample T-test</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-0.018</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>历史平均跨膜压_mean, mean (SD)</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr"/>
+      <c r="C82" t="n">
         <v>0</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>76.6 (22.9)</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>76.6 (22.9)</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>76.7 (22.5)</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>76.6 (22.5)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Two Sample T-test</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>0.007</t>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Two Sample T-test</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>0.001</t>
         </is>
       </c>
     </row>
